--- a/data/pca/factorExposure/factorExposure_2016-03-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01277369675141326</v>
+        <v>-0.01590264285685354</v>
       </c>
       <c r="C2">
-        <v>0.05842975876533958</v>
+        <v>0.04240487654144867</v>
       </c>
       <c r="D2">
-        <v>0.0314493009409111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07625665724513674</v>
+      </c>
+      <c r="E2">
+        <v>-0.1254201216946459</v>
+      </c>
+      <c r="F2">
+        <v>-0.03461745904421605</v>
+      </c>
+      <c r="G2">
+        <v>0.0001379741588795397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04305513625476892</v>
+        <v>-0.02663578576082576</v>
       </c>
       <c r="C3">
-        <v>0.12399521903449</v>
+        <v>0.06734072843842298</v>
       </c>
       <c r="D3">
-        <v>0.05862068932051691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07763753949328783</v>
+      </c>
+      <c r="E3">
+        <v>-0.0718689637806359</v>
+      </c>
+      <c r="F3">
+        <v>0.05816542209061798</v>
+      </c>
+      <c r="G3">
+        <v>-0.1092793752183625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05952480220944325</v>
+        <v>-0.06010789449514213</v>
       </c>
       <c r="C4">
-        <v>0.06095620884340282</v>
+        <v>0.06204815564715577</v>
       </c>
       <c r="D4">
-        <v>0.02391479378842809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06815061368639265</v>
+      </c>
+      <c r="E4">
+        <v>-0.1190216018260288</v>
+      </c>
+      <c r="F4">
+        <v>0.02696153861171978</v>
+      </c>
+      <c r="G4">
+        <v>0.04774318422830244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04268836056239052</v>
+        <v>-0.03984930370280888</v>
       </c>
       <c r="C6">
-        <v>0.03817490043356574</v>
+        <v>0.02818270299670566</v>
       </c>
       <c r="D6">
-        <v>0.02435360888059004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07470975016290587</v>
+      </c>
+      <c r="E6">
+        <v>-0.1030490024238506</v>
+      </c>
+      <c r="F6">
+        <v>0.02626575597101728</v>
+      </c>
+      <c r="G6">
+        <v>0.0001657030236720385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02946371555402554</v>
+        <v>-0.02246432202553987</v>
       </c>
       <c r="C7">
-        <v>0.03628722352345613</v>
+        <v>0.03516716979803102</v>
       </c>
       <c r="D7">
-        <v>0.003819851731144065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05728122628320135</v>
+      </c>
+      <c r="E7">
+        <v>-0.09458552999887536</v>
+      </c>
+      <c r="F7">
+        <v>0.004586326577924999</v>
+      </c>
+      <c r="G7">
+        <v>0.08685595306194983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01078439602050651</v>
+        <v>-0.008664739765917749</v>
       </c>
       <c r="C8">
-        <v>0.04515803170356549</v>
+        <v>0.03659311188525641</v>
       </c>
       <c r="D8">
-        <v>0.02755760376148482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04829249453590584</v>
+      </c>
+      <c r="E8">
+        <v>-0.07146437027246123</v>
+      </c>
+      <c r="F8">
+        <v>0.01724034069835506</v>
+      </c>
+      <c r="G8">
+        <v>-0.008131255655753211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03896317426753378</v>
+        <v>-0.04245803139615505</v>
       </c>
       <c r="C9">
-        <v>0.04398146445573335</v>
+        <v>0.04924323761159125</v>
       </c>
       <c r="D9">
-        <v>0.0220243669585986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05868768708854175</v>
+      </c>
+      <c r="E9">
+        <v>-0.09888994308149177</v>
+      </c>
+      <c r="F9">
+        <v>0.007914613594552759</v>
+      </c>
+      <c r="G9">
+        <v>0.04767898108094513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0731515244836745</v>
+        <v>-0.1012644974153384</v>
       </c>
       <c r="C10">
-        <v>-0.1870680921533721</v>
+        <v>-0.2003701347284998</v>
       </c>
       <c r="D10">
-        <v>0.004410998238546893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.006404688104039607</v>
+      </c>
+      <c r="E10">
+        <v>-0.04152971554669865</v>
+      </c>
+      <c r="F10">
+        <v>0.005425941071223067</v>
+      </c>
+      <c r="G10">
+        <v>0.02486446343550305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04480550554675901</v>
+        <v>-0.03848235124563294</v>
       </c>
       <c r="C11">
-        <v>0.05028236651777541</v>
+        <v>0.04760392713562573</v>
       </c>
       <c r="D11">
-        <v>0.01870212265738536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04107226553116077</v>
+      </c>
+      <c r="E11">
+        <v>-0.04529552400358015</v>
+      </c>
+      <c r="F11">
+        <v>0.006581829921233929</v>
+      </c>
+      <c r="G11">
+        <v>0.05719465913839143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04797389382435885</v>
+        <v>-0.04079015912157569</v>
       </c>
       <c r="C12">
-        <v>0.04519830622799668</v>
+        <v>0.04574978116004663</v>
       </c>
       <c r="D12">
-        <v>0.0006715925894445735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03513391590478942</v>
+      </c>
+      <c r="E12">
+        <v>-0.0543809435656661</v>
+      </c>
+      <c r="F12">
+        <v>0.003648357182796285</v>
+      </c>
+      <c r="G12">
+        <v>0.04984083124667767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01773609036361047</v>
+        <v>-0.01629959959467174</v>
       </c>
       <c r="C13">
-        <v>0.05388045420569462</v>
+        <v>0.04256954735798869</v>
       </c>
       <c r="D13">
-        <v>0.00756321127663165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06607094667646152</v>
+      </c>
+      <c r="E13">
+        <v>-0.1332106019569509</v>
+      </c>
+      <c r="F13">
+        <v>0.01773761939915751</v>
+      </c>
+      <c r="G13">
+        <v>0.05146659360535456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01291888518143872</v>
+        <v>-0.008000808603123841</v>
       </c>
       <c r="C14">
-        <v>0.03509791959866809</v>
+        <v>0.03011068414867295</v>
       </c>
       <c r="D14">
-        <v>-0.0002394110763622701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04211262676132504</v>
+      </c>
+      <c r="E14">
+        <v>-0.08954127771635619</v>
+      </c>
+      <c r="F14">
+        <v>-0.01373129498169214</v>
+      </c>
+      <c r="G14">
+        <v>0.05335772675842384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002959269195408478</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006162352274698401</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01086155989789385</v>
+      </c>
+      <c r="E15">
+        <v>-0.01264315758207525</v>
+      </c>
+      <c r="F15">
+        <v>2.075953405106462e-05</v>
+      </c>
+      <c r="G15">
+        <v>0.001710882606093375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04354735501009754</v>
+        <v>-0.03736493688200235</v>
       </c>
       <c r="C16">
-        <v>0.04779429831819444</v>
+        <v>0.04514249505276068</v>
       </c>
       <c r="D16">
-        <v>0.004738909234326003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03533180972242717</v>
+      </c>
+      <c r="E16">
+        <v>-0.05943352962743167</v>
+      </c>
+      <c r="F16">
+        <v>-0.008303482794230219</v>
+      </c>
+      <c r="G16">
+        <v>0.0454873954575584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02499256289661157</v>
+        <v>-0.01879060693672276</v>
       </c>
       <c r="C19">
-        <v>0.06101543759263074</v>
+        <v>0.04390700242348969</v>
       </c>
       <c r="D19">
-        <v>0.06605213284491852</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09510583248643641</v>
+      </c>
+      <c r="E19">
+        <v>-0.1285122988966551</v>
+      </c>
+      <c r="F19">
+        <v>-0.01290978124829803</v>
+      </c>
+      <c r="G19">
+        <v>0.00154333633393563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02186444604493337</v>
+        <v>-0.01737038184355357</v>
       </c>
       <c r="C20">
-        <v>0.04697681295139145</v>
+        <v>0.03941894250996035</v>
       </c>
       <c r="D20">
-        <v>0.005934220193867359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04878048680712258</v>
+      </c>
+      <c r="E20">
+        <v>-0.1041317867104078</v>
+      </c>
+      <c r="F20">
+        <v>0.001372692354103254</v>
+      </c>
+      <c r="G20">
+        <v>0.02959341142569215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01948586229356223</v>
+        <v>-0.0156115187821609</v>
       </c>
       <c r="C21">
-        <v>0.05777577612610453</v>
+        <v>0.04637153520535763</v>
       </c>
       <c r="D21">
-        <v>0.02101127085552713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0743267491889795</v>
+      </c>
+      <c r="E21">
+        <v>-0.1559534793000556</v>
+      </c>
+      <c r="F21">
+        <v>-0.01274018503341451</v>
+      </c>
+      <c r="G21">
+        <v>0.06365005896943424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0008936888930992997</v>
+        <v>-0.005217058050863492</v>
       </c>
       <c r="C22">
-        <v>0.01430501443273301</v>
+        <v>0.02908276839466266</v>
       </c>
       <c r="D22">
-        <v>0.0256580495625534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06451765790351835</v>
+      </c>
+      <c r="E22">
+        <v>-0.07705828658351029</v>
+      </c>
+      <c r="F22">
+        <v>0.06582838955582372</v>
+      </c>
+      <c r="G22">
+        <v>-0.02891439254376545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0009049188129849554</v>
+        <v>-0.005341711936087379</v>
       </c>
       <c r="C23">
-        <v>0.01431812232402177</v>
+        <v>0.02913779885212656</v>
       </c>
       <c r="D23">
-        <v>0.02562023616496552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06381388069852567</v>
+      </c>
+      <c r="E23">
+        <v>-0.07718867073911836</v>
+      </c>
+      <c r="F23">
+        <v>0.06575111979768447</v>
+      </c>
+      <c r="G23">
+        <v>-0.02853163583003275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03997095022938275</v>
+        <v>-0.03804211903109407</v>
       </c>
       <c r="C24">
-        <v>0.04862883791884971</v>
+        <v>0.05279942784485916</v>
       </c>
       <c r="D24">
-        <v>0.01128248313582596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.03770715099157297</v>
+      </c>
+      <c r="E24">
+        <v>-0.06509168706118976</v>
+      </c>
+      <c r="F24">
+        <v>-0.004272261335745655</v>
+      </c>
+      <c r="G24">
+        <v>0.06092967248008734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05038622017905323</v>
+        <v>-0.04500357465878204</v>
       </c>
       <c r="C25">
-        <v>0.05728395173170431</v>
+        <v>0.05514959268926654</v>
       </c>
       <c r="D25">
-        <v>0.004180036091439019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0342325601287554</v>
+      </c>
+      <c r="E25">
+        <v>-0.05688674436013931</v>
+      </c>
+      <c r="F25">
+        <v>0.008299257260181559</v>
+      </c>
+      <c r="G25">
+        <v>0.06835120652702081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02133538290532907</v>
+        <v>-0.01888257594745813</v>
       </c>
       <c r="C26">
-        <v>0.01461330071415378</v>
+        <v>0.016233656660607</v>
       </c>
       <c r="D26">
-        <v>0.01421823312071113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03923771584151091</v>
+      </c>
+      <c r="E26">
+        <v>-0.0694995074891631</v>
+      </c>
+      <c r="F26">
+        <v>-0.01313745450691829</v>
+      </c>
+      <c r="G26">
+        <v>0.02597731451193202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09153173041090135</v>
+        <v>-0.1392825823750309</v>
       </c>
       <c r="C28">
-        <v>-0.2578785037138949</v>
+        <v>-0.2601524309784801</v>
       </c>
       <c r="D28">
-        <v>-0.005711915065969369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02362659816105097</v>
+      </c>
+      <c r="E28">
+        <v>-0.06384590071619746</v>
+      </c>
+      <c r="F28">
+        <v>0.005537189464279785</v>
+      </c>
+      <c r="G28">
+        <v>0.05815096100802918</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01087651355184026</v>
+        <v>-0.008122379393572113</v>
       </c>
       <c r="C29">
-        <v>0.03015004057637822</v>
+        <v>0.02757861929105418</v>
       </c>
       <c r="D29">
-        <v>-0.004942279841471178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03494108697621396</v>
+      </c>
+      <c r="E29">
+        <v>-0.08369268549056258</v>
+      </c>
+      <c r="F29">
+        <v>-0.003974555375215271</v>
+      </c>
+      <c r="G29">
+        <v>0.05855469253092363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04515217047595788</v>
+        <v>-0.04504317505691805</v>
       </c>
       <c r="C30">
-        <v>0.04919765098031977</v>
+        <v>0.05566243483375179</v>
       </c>
       <c r="D30">
-        <v>0.08087688139907864</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1210394544977551</v>
+      </c>
+      <c r="E30">
+        <v>-0.1122541612124881</v>
+      </c>
+      <c r="F30">
+        <v>0.002330948517686349</v>
+      </c>
+      <c r="G30">
+        <v>0.002013375130543223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06605361770967855</v>
+        <v>-0.0630209029147579</v>
       </c>
       <c r="C31">
-        <v>0.04498467288391378</v>
+        <v>0.06029535254127208</v>
       </c>
       <c r="D31">
-        <v>-0.03820768756795762</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0005017805190263697</v>
+      </c>
+      <c r="E31">
+        <v>-0.08761768297866279</v>
+      </c>
+      <c r="F31">
+        <v>0.03232280807539772</v>
+      </c>
+      <c r="G31">
+        <v>0.03535335183042414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004795783974128963</v>
+        <v>-0.009724258988039925</v>
       </c>
       <c r="C32">
-        <v>0.03701128892409091</v>
+        <v>0.03290528971677908</v>
       </c>
       <c r="D32">
-        <v>0.06102216499519707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.07058267293903268</v>
+      </c>
+      <c r="E32">
+        <v>-0.08388200518025164</v>
+      </c>
+      <c r="F32">
+        <v>-0.01276293137435671</v>
+      </c>
+      <c r="G32">
+        <v>0.05444269347768046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03636468363539337</v>
+        <v>-0.02977648750074598</v>
       </c>
       <c r="C33">
-        <v>0.05833226632083157</v>
+        <v>0.05170271270533363</v>
       </c>
       <c r="D33">
-        <v>0.04228104044697802</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08697658191059573</v>
+      </c>
+      <c r="E33">
+        <v>-0.1188424437401001</v>
+      </c>
+      <c r="F33">
+        <v>0.01477908818682071</v>
+      </c>
+      <c r="G33">
+        <v>0.0550587478174848</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04543988146485414</v>
+        <v>-0.0408062020247908</v>
       </c>
       <c r="C34">
-        <v>0.06332841342756304</v>
+        <v>0.06249209074823991</v>
       </c>
       <c r="D34">
-        <v>0.02424723485330692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04396314641388568</v>
+      </c>
+      <c r="E34">
+        <v>-0.04558657797441804</v>
+      </c>
+      <c r="F34">
+        <v>-0.004910129567566014</v>
+      </c>
+      <c r="G34">
+        <v>0.06910627406346714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-3.011624223300376e-06</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0002415284061756961</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.000160079389707295</v>
+      </c>
+      <c r="E35">
+        <v>0.0005736573670949445</v>
+      </c>
+      <c r="F35">
+        <v>-0.0003224427690097934</v>
+      </c>
+      <c r="G35">
+        <v>0.0003981902503622663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02018299915280474</v>
+        <v>-0.0177609025924891</v>
       </c>
       <c r="C36">
-        <v>0.01602582479932887</v>
+        <v>0.01298402611801157</v>
       </c>
       <c r="D36">
-        <v>0.00386383623704445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03852620056013353</v>
+      </c>
+      <c r="E36">
+        <v>-0.08215433248917897</v>
+      </c>
+      <c r="F36">
+        <v>0.002073254597736874</v>
+      </c>
+      <c r="G36">
+        <v>0.04295419591433831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03067140319182464</v>
+        <v>-0.02374402614199272</v>
       </c>
       <c r="C38">
-        <v>0.03224086133216379</v>
+        <v>0.02492638973474595</v>
       </c>
       <c r="D38">
-        <v>-0.01330670983090662</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0300052600383061</v>
+      </c>
+      <c r="E38">
+        <v>-0.07157668674114617</v>
+      </c>
+      <c r="F38">
+        <v>0.002626859915276466</v>
+      </c>
+      <c r="G38">
+        <v>0.002563344881657898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05145703008768376</v>
+        <v>-0.04442359365889628</v>
       </c>
       <c r="C39">
-        <v>0.05834417230800076</v>
+        <v>0.06149525037759652</v>
       </c>
       <c r="D39">
-        <v>0.02681355829733646</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06653803608363816</v>
+      </c>
+      <c r="E39">
+        <v>-0.07692042237807867</v>
+      </c>
+      <c r="F39">
+        <v>-0.02093977071999914</v>
+      </c>
+      <c r="G39">
+        <v>0.04934006331895484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01388227926112896</v>
+        <v>-0.01663716069469609</v>
       </c>
       <c r="C40">
-        <v>0.05735774371486291</v>
+        <v>0.04069449758443726</v>
       </c>
       <c r="D40">
-        <v>0.001847284559802891</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04319097764456264</v>
+      </c>
+      <c r="E40">
+        <v>-0.1162621865771942</v>
+      </c>
+      <c r="F40">
+        <v>0.0294464879538082</v>
+      </c>
+      <c r="G40">
+        <v>0.04263815363845214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02565505055022649</v>
+        <v>-0.02157100591068154</v>
       </c>
       <c r="C41">
-        <v>0.01336558443790457</v>
+        <v>0.01017401570098845</v>
       </c>
       <c r="D41">
-        <v>0.00176092219219174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02569629259926343</v>
+      </c>
+      <c r="E41">
+        <v>-0.07724702350621517</v>
+      </c>
+      <c r="F41">
+        <v>0.000131922174559745</v>
+      </c>
+      <c r="G41">
+        <v>0.02960419683346522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04821153821141612</v>
+        <v>-0.03346153705287891</v>
       </c>
       <c r="C43">
-        <v>0.03395025000163416</v>
+        <v>0.02430282245373616</v>
       </c>
       <c r="D43">
-        <v>0.01423562420931731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05361492252075425</v>
+      </c>
+      <c r="E43">
+        <v>-0.09032133912280146</v>
+      </c>
+      <c r="F43">
+        <v>0.02127574053958877</v>
+      </c>
+      <c r="G43">
+        <v>0.04766887447812585</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01882688376887721</v>
+        <v>-0.01968074909792918</v>
       </c>
       <c r="C44">
-        <v>0.06921859204395481</v>
+        <v>0.04860327669751689</v>
       </c>
       <c r="D44">
-        <v>-0.01105890197078965</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04119849280327889</v>
+      </c>
+      <c r="E44">
+        <v>-0.113698248418006</v>
+      </c>
+      <c r="F44">
+        <v>-0.01178643612299804</v>
+      </c>
+      <c r="G44">
+        <v>0.02720340809204363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01551427739347941</v>
+        <v>-0.01397342728928444</v>
       </c>
       <c r="C46">
-        <v>0.02666188005596134</v>
+        <v>0.02943643108572386</v>
       </c>
       <c r="D46">
-        <v>-0.0119591954328377</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0299111931595341</v>
+      </c>
+      <c r="E46">
+        <v>-0.09470523424274939</v>
+      </c>
+      <c r="F46">
+        <v>-0.01588125752751708</v>
+      </c>
+      <c r="G46">
+        <v>0.06939442299330303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09415880569182963</v>
+        <v>-0.0942991820642403</v>
       </c>
       <c r="C47">
-        <v>0.06571533175873352</v>
+        <v>0.07960773211656773</v>
       </c>
       <c r="D47">
-        <v>-0.05017645183392452</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01647689652144705</v>
+      </c>
+      <c r="E47">
+        <v>-0.07614507101635845</v>
+      </c>
+      <c r="F47">
+        <v>0.02145052561577418</v>
+      </c>
+      <c r="G47">
+        <v>0.06186024758760494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02250772234571122</v>
+        <v>-0.02018496623060692</v>
       </c>
       <c r="C48">
-        <v>0.01146673928964086</v>
+        <v>0.01477361239512735</v>
       </c>
       <c r="D48">
-        <v>-0.01715511458639889</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02359268093823056</v>
+      </c>
+      <c r="E48">
+        <v>-0.09766435938991537</v>
+      </c>
+      <c r="F48">
+        <v>-0.00625283638408252</v>
+      </c>
+      <c r="G48">
+        <v>0.04911155297609159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08576461017952734</v>
+        <v>-0.07300261499874734</v>
       </c>
       <c r="C50">
-        <v>0.08388119777679751</v>
+        <v>0.07475587549131077</v>
       </c>
       <c r="D50">
-        <v>-0.05252524974547755</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001492440754051556</v>
+      </c>
+      <c r="E50">
+        <v>-0.09054916426474439</v>
+      </c>
+      <c r="F50">
+        <v>0.05779086948465274</v>
+      </c>
+      <c r="G50">
+        <v>0.0312528965696461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01479853973496597</v>
+        <v>-0.01125873118976435</v>
       </c>
       <c r="C51">
-        <v>0.04966917281955556</v>
+        <v>0.03024401346148256</v>
       </c>
       <c r="D51">
-        <v>0.04811732318871994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07095515038569394</v>
+      </c>
+      <c r="E51">
+        <v>-0.08700687466805337</v>
+      </c>
+      <c r="F51">
+        <v>-0.0102988910024974</v>
+      </c>
+      <c r="G51">
+        <v>0.02565153642544615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08583866701620144</v>
+        <v>-0.09916340447047875</v>
       </c>
       <c r="C53">
-        <v>0.0778292764654482</v>
+        <v>0.08609136519804417</v>
       </c>
       <c r="D53">
-        <v>-0.07045239852033172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05537187400228376</v>
+      </c>
+      <c r="E53">
+        <v>-0.08853826108276802</v>
+      </c>
+      <c r="F53">
+        <v>0.01817329449715837</v>
+      </c>
+      <c r="G53">
+        <v>0.06231393635228602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03990291000738481</v>
+        <v>-0.03224012146894134</v>
       </c>
       <c r="C54">
-        <v>0.03254458962913385</v>
+        <v>0.03088524213563152</v>
       </c>
       <c r="D54">
-        <v>0.007417055195654508</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.04383077235933546</v>
+      </c>
+      <c r="E54">
+        <v>-0.08845222946837408</v>
+      </c>
+      <c r="F54">
+        <v>-0.006222823433242723</v>
+      </c>
+      <c r="G54">
+        <v>0.05835158122655158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08425602032772973</v>
+        <v>-0.09219105336317727</v>
       </c>
       <c r="C55">
-        <v>0.05135091618341869</v>
+        <v>0.06649201196589825</v>
       </c>
       <c r="D55">
-        <v>-0.06688469703929335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05336730999385991</v>
+      </c>
+      <c r="E55">
+        <v>-0.05629727581400396</v>
+      </c>
+      <c r="F55">
+        <v>0.02818840162628486</v>
+      </c>
+      <c r="G55">
+        <v>0.02650302222571967</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1530618050250738</v>
+        <v>-0.1556793625469678</v>
       </c>
       <c r="C56">
-        <v>0.08137099879816878</v>
+        <v>0.1009801241869233</v>
       </c>
       <c r="D56">
-        <v>-0.07265741488719255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.06010410376405032</v>
+      </c>
+      <c r="E56">
+        <v>-0.04129609697611866</v>
+      </c>
+      <c r="F56">
+        <v>0.01370556173773918</v>
+      </c>
+      <c r="G56">
+        <v>0.03501968784534316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04857086402459344</v>
+        <v>-0.03653623707516748</v>
       </c>
       <c r="C58">
-        <v>-3.1786787541325e-06</v>
+        <v>0.01177100822025464</v>
       </c>
       <c r="D58">
-        <v>0.1785131970131654</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2682670792932268</v>
+      </c>
+      <c r="E58">
+        <v>-0.3439390584602767</v>
+      </c>
+      <c r="F58">
+        <v>0.1902964138494459</v>
+      </c>
+      <c r="G58">
+        <v>-0.6169795999327857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1239089295625283</v>
+        <v>-0.1428546329947643</v>
       </c>
       <c r="C59">
-        <v>-0.209301573858367</v>
+        <v>-0.1943236767261558</v>
       </c>
       <c r="D59">
-        <v>0.03226733518778207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03520367191260823</v>
+      </c>
+      <c r="E59">
+        <v>-0.03469266779944456</v>
+      </c>
+      <c r="F59">
+        <v>-0.02477707546252622</v>
+      </c>
+      <c r="G59">
+        <v>-0.02011492080681755</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2935811391274918</v>
+        <v>-0.2658199695003415</v>
       </c>
       <c r="C60">
-        <v>0.1064247686343892</v>
+        <v>0.09850015366471811</v>
       </c>
       <c r="D60">
-        <v>0.2749941177837777</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2476844026622546</v>
+      </c>
+      <c r="E60">
+        <v>0.2612633444741744</v>
+      </c>
+      <c r="F60">
+        <v>0.08935084980571169</v>
+      </c>
+      <c r="G60">
+        <v>0.02888991025027218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04901846132019988</v>
+        <v>-0.04562908848676885</v>
       </c>
       <c r="C61">
-        <v>0.05415892259729514</v>
+        <v>0.05503053051131124</v>
       </c>
       <c r="D61">
-        <v>0.02312911350709475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05421200552281335</v>
+      </c>
+      <c r="E61">
+        <v>-0.07386937419405931</v>
+      </c>
+      <c r="F61">
+        <v>0.0008173312040072974</v>
+      </c>
+      <c r="G61">
+        <v>0.06384959735740253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01756848739491418</v>
+        <v>-0.01747217169326812</v>
       </c>
       <c r="C63">
-        <v>0.03394992134166191</v>
+        <v>0.03052478158306168</v>
       </c>
       <c r="D63">
-        <v>-0.01882170855345519</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02803944390399536</v>
+      </c>
+      <c r="E63">
+        <v>-0.09083717269659082</v>
+      </c>
+      <c r="F63">
+        <v>0.0195522114371447</v>
+      </c>
+      <c r="G63">
+        <v>0.03162761365159945</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05558565214588679</v>
+        <v>-0.05896761734138539</v>
       </c>
       <c r="C64">
-        <v>0.04518164382941421</v>
+        <v>0.05908279639527817</v>
       </c>
       <c r="D64">
-        <v>0.007014925926097582</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01932922531432965</v>
+      </c>
+      <c r="E64">
+        <v>-0.06030393761624662</v>
+      </c>
+      <c r="F64">
+        <v>-0.01620363743073447</v>
+      </c>
+      <c r="G64">
+        <v>0.08033357976015681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07959095441038595</v>
+        <v>-0.06550208468787579</v>
       </c>
       <c r="C65">
-        <v>0.02650009009895237</v>
+        <v>0.02636298268588929</v>
       </c>
       <c r="D65">
-        <v>0.05569657048432319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09671663421515411</v>
+      </c>
+      <c r="E65">
+        <v>-0.05815217075085697</v>
+      </c>
+      <c r="F65">
+        <v>0.03220671465389473</v>
+      </c>
+      <c r="G65">
+        <v>-0.05591112975620941</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06299590703312623</v>
+        <v>-0.0551446848587443</v>
       </c>
       <c r="C66">
-        <v>0.07828117978324572</v>
+        <v>0.07689304607176199</v>
       </c>
       <c r="D66">
-        <v>0.04331907478650054</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08846406401661616</v>
+      </c>
+      <c r="E66">
+        <v>-0.0904179275857178</v>
+      </c>
+      <c r="F66">
+        <v>-0.0006480100916360433</v>
+      </c>
+      <c r="G66">
+        <v>0.05032602493393708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05031822303440461</v>
+        <v>-0.04278810133052043</v>
       </c>
       <c r="C67">
-        <v>0.03210739121858292</v>
+        <v>0.02869913567976051</v>
       </c>
       <c r="D67">
-        <v>-0.02358516910563805</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.008702946928521114</v>
+      </c>
+      <c r="E67">
+        <v>-0.0430849353750813</v>
+      </c>
+      <c r="F67">
+        <v>0.003417658811302486</v>
+      </c>
+      <c r="G67">
+        <v>0.01110597750092236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1260691502021679</v>
+        <v>-0.1499632350000842</v>
       </c>
       <c r="C68">
-        <v>-0.2825176487169612</v>
+        <v>-0.2430195566679301</v>
       </c>
       <c r="D68">
-        <v>-0.007425159868523697</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.006356039666330351</v>
+      </c>
+      <c r="E68">
+        <v>-0.04951404096956345</v>
+      </c>
+      <c r="F68">
+        <v>0.01439354354658353</v>
+      </c>
+      <c r="G68">
+        <v>-0.007859203557944236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09408715039842021</v>
+        <v>-0.09007499310812478</v>
       </c>
       <c r="C69">
-        <v>0.07489435278390245</v>
+        <v>0.08917713815946471</v>
       </c>
       <c r="D69">
-        <v>-0.0471858098919065</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.003776090737695725</v>
+      </c>
+      <c r="E69">
+        <v>-0.07865261670203547</v>
+      </c>
+      <c r="F69">
+        <v>-0.00613937880707939</v>
+      </c>
+      <c r="G69">
+        <v>0.07528997469823721</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1141755916511389</v>
+        <v>-0.1440301544989253</v>
       </c>
       <c r="C71">
-        <v>-0.2610909378978578</v>
+        <v>-0.2447873979597483</v>
       </c>
       <c r="D71">
-        <v>0.01360889231252899</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0113315312179416</v>
+      </c>
+      <c r="E71">
+        <v>-0.06807518852255666</v>
+      </c>
+      <c r="F71">
+        <v>0.02919696691045554</v>
+      </c>
+      <c r="G71">
+        <v>0.04018292306319193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1010505349179072</v>
+        <v>-0.1064287904027717</v>
       </c>
       <c r="C72">
-        <v>0.04950694044112448</v>
+        <v>0.05061873148982816</v>
       </c>
       <c r="D72">
-        <v>0.0168233214184101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.05340361902036251</v>
+      </c>
+      <c r="E72">
+        <v>-0.04908181595995743</v>
+      </c>
+      <c r="F72">
+        <v>0.03219717203355803</v>
+      </c>
+      <c r="G72">
+        <v>0.06211702004733899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3707015606706458</v>
+        <v>-0.3174631198139167</v>
       </c>
       <c r="C73">
-        <v>0.0723912674759426</v>
+        <v>0.07933162593844507</v>
       </c>
       <c r="D73">
-        <v>0.5737710488895376</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4849999923808414</v>
+      </c>
+      <c r="E73">
+        <v>0.5150297399266128</v>
+      </c>
+      <c r="F73">
+        <v>0.1684615738943976</v>
+      </c>
+      <c r="G73">
+        <v>-0.02394847702327222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1059418764663465</v>
+        <v>-0.1100000687214004</v>
       </c>
       <c r="C74">
-        <v>0.0942793776855007</v>
+        <v>0.0919324996071071</v>
       </c>
       <c r="D74">
-        <v>-0.0556096795911731</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04539762222549052</v>
+      </c>
+      <c r="E74">
+        <v>-0.06376587813912953</v>
+      </c>
+      <c r="F74">
+        <v>0.03727216527458904</v>
+      </c>
+      <c r="G74">
+        <v>0.02911080324881941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2565058101943547</v>
+        <v>-0.2577267185043394</v>
       </c>
       <c r="C75">
-        <v>0.08534971564634133</v>
+        <v>0.1229252901844567</v>
       </c>
       <c r="D75">
-        <v>-0.167439746829821</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1644899062291809</v>
+      </c>
+      <c r="E75">
+        <v>-0.007403218410130109</v>
+      </c>
+      <c r="F75">
+        <v>0.01219269330657194</v>
+      </c>
+      <c r="G75">
+        <v>-0.02714876962388919</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1198208194660931</v>
+        <v>-0.1309030106294597</v>
       </c>
       <c r="C76">
-        <v>0.07730985664178745</v>
+        <v>0.08999329358920162</v>
       </c>
       <c r="D76">
-        <v>-0.09313350483810176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07766085020212345</v>
+      </c>
+      <c r="E76">
+        <v>-0.08646513173586497</v>
+      </c>
+      <c r="F76">
+        <v>0.007780485747729463</v>
+      </c>
+      <c r="G76">
+        <v>0.0257426034425962</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.083760005158872</v>
+        <v>-0.06874294208029913</v>
       </c>
       <c r="C77">
-        <v>0.03480664945788114</v>
+        <v>0.05619891476477296</v>
       </c>
       <c r="D77">
-        <v>0.05576759824337519</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07704005015251458</v>
+      </c>
+      <c r="E77">
+        <v>-0.1243754052021463</v>
+      </c>
+      <c r="F77">
+        <v>-0.2017320556521028</v>
+      </c>
+      <c r="G77">
+        <v>-0.1326733954488066</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04794711010303162</v>
+        <v>-0.04815065710947573</v>
       </c>
       <c r="C78">
-        <v>0.0398345427512523</v>
+        <v>0.05135177746609035</v>
       </c>
       <c r="D78">
-        <v>0.04262317839401107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08022329674584981</v>
+      </c>
+      <c r="E78">
+        <v>-0.08636732931316862</v>
+      </c>
+      <c r="F78">
+        <v>-0.0006210166958692541</v>
+      </c>
+      <c r="G78">
+        <v>0.05198616608356856</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.001190940367472988</v>
+        <v>-0.03649910163046322</v>
       </c>
       <c r="C79">
-        <v>0.0003444281097704588</v>
+        <v>0.05006068981626417</v>
       </c>
       <c r="D79">
-        <v>0.005123494443682947</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.091539363471181</v>
+      </c>
+      <c r="E79">
+        <v>-0.07579058966839908</v>
+      </c>
+      <c r="F79">
+        <v>0.03819273276807808</v>
+      </c>
+      <c r="G79">
+        <v>0.1204670230524235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03618529028167698</v>
+        <v>-0.02860946871301798</v>
       </c>
       <c r="C80">
-        <v>0.04794049340718299</v>
+        <v>0.04916743468327325</v>
       </c>
       <c r="D80">
-        <v>0.03470557696192609</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.043690178341078</v>
+      </c>
+      <c r="E80">
+        <v>-0.02729155990800795</v>
+      </c>
+      <c r="F80">
+        <v>-0.04064843828394851</v>
+      </c>
+      <c r="G80">
+        <v>0.009778391867492506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.14780600724285</v>
+        <v>-0.1434174134057514</v>
       </c>
       <c r="C81">
-        <v>0.06673860725956657</v>
+        <v>0.0893029219087428</v>
       </c>
       <c r="D81">
-        <v>-0.1410662428456441</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1284076712179947</v>
+      </c>
+      <c r="E81">
+        <v>-0.05596573004367362</v>
+      </c>
+      <c r="F81">
+        <v>0.010289825914044</v>
+      </c>
+      <c r="G81">
+        <v>-0.004989575333924198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2154129433646093</v>
+        <v>-0.2373564028172053</v>
       </c>
       <c r="C82">
-        <v>0.09225188452578792</v>
+        <v>0.1613864588036804</v>
       </c>
       <c r="D82">
-        <v>-0.1900338338509659</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2483988341742042</v>
+      </c>
+      <c r="E82">
+        <v>0.05013107483671207</v>
+      </c>
+      <c r="F82">
+        <v>-0.05686257917676077</v>
+      </c>
+      <c r="G82">
+        <v>0.3657234950689584</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04353979789598676</v>
+        <v>-0.02924108954413926</v>
       </c>
       <c r="C83">
-        <v>0.03974424337945114</v>
+        <v>0.04812099445360838</v>
       </c>
       <c r="D83">
-        <v>0.04575309146163532</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0360264716195626</v>
+      </c>
+      <c r="E83">
+        <v>-0.03195903823265112</v>
+      </c>
+      <c r="F83">
+        <v>-0.02386791109703636</v>
+      </c>
+      <c r="G83">
+        <v>-0.009947251903187116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001029531494718709</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001152061395926399</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0007381541886022313</v>
+      </c>
+      <c r="E84">
+        <v>-0.007238315936050361</v>
+      </c>
+      <c r="F84">
+        <v>0.003019118317735058</v>
+      </c>
+      <c r="G84">
+        <v>-0.004417096924183319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2077515349517481</v>
+        <v>-0.1938757039379375</v>
       </c>
       <c r="C85">
-        <v>0.09269084562591565</v>
+        <v>0.1108218406608119</v>
       </c>
       <c r="D85">
-        <v>-0.1796743353861578</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1456017271614821</v>
+      </c>
+      <c r="E85">
+        <v>0.01186787938225937</v>
+      </c>
+      <c r="F85">
+        <v>0.08447667846233331</v>
+      </c>
+      <c r="G85">
+        <v>0.008581056760260709</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01198813637787264</v>
+        <v>-0.01614396508291639</v>
       </c>
       <c r="C86">
-        <v>0.02719880758802805</v>
+        <v>0.01563042729967736</v>
       </c>
       <c r="D86">
-        <v>0.04249277816786916</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.08124649207636662</v>
+      </c>
+      <c r="E86">
+        <v>-0.1023266549884069</v>
+      </c>
+      <c r="F86">
+        <v>-0.01698170994206381</v>
+      </c>
+      <c r="G86">
+        <v>0.06575127996688065</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03423232938492828</v>
+        <v>-0.03363405760642397</v>
       </c>
       <c r="C87">
-        <v>-0.001238196193655295</v>
+        <v>0.01297030529694418</v>
       </c>
       <c r="D87">
-        <v>0.05786767196880751</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09710667751736168</v>
+      </c>
+      <c r="E87">
+        <v>-0.1405162316915455</v>
+      </c>
+      <c r="F87">
+        <v>-0.04675430248142061</v>
+      </c>
+      <c r="G87">
+        <v>-0.03047886636741135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1141323456128847</v>
+        <v>-0.095435878663425</v>
       </c>
       <c r="C88">
-        <v>0.08277424745012155</v>
+        <v>0.06903256809153398</v>
       </c>
       <c r="D88">
-        <v>-0.01759588476000146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01727832002238398</v>
+      </c>
+      <c r="E88">
+        <v>-0.05384308907042089</v>
+      </c>
+      <c r="F88">
+        <v>-0.01695726156991332</v>
+      </c>
+      <c r="G88">
+        <v>0.04289222520482278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1817123925819163</v>
+        <v>-0.2182134642496222</v>
       </c>
       <c r="C89">
-        <v>-0.3783256412744953</v>
+        <v>-0.3807133525021066</v>
       </c>
       <c r="D89">
-        <v>-0.02947292953661309</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.009249234065775224</v>
+      </c>
+      <c r="E89">
+        <v>-0.07630019287253596</v>
+      </c>
+      <c r="F89">
+        <v>-0.06672004083189866</v>
+      </c>
+      <c r="G89">
+        <v>0.02287816599523083</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1725223829689761</v>
+        <v>-0.1979632310233908</v>
       </c>
       <c r="C90">
-        <v>-0.3325309659475061</v>
+        <v>-0.3092969666553906</v>
       </c>
       <c r="D90">
-        <v>-0.03820083226638468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01081101223833911</v>
+      </c>
+      <c r="E90">
+        <v>-0.0618731387098672</v>
+      </c>
+      <c r="F90">
+        <v>-0.003243316555901853</v>
+      </c>
+      <c r="G90">
+        <v>-0.004887337374889497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1924429004142543</v>
+        <v>-0.18707691869576</v>
       </c>
       <c r="C91">
-        <v>0.1214964094482068</v>
+        <v>0.1417516418176454</v>
       </c>
       <c r="D91">
-        <v>-0.1531028244687877</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1360469906216904</v>
+      </c>
+      <c r="E91">
+        <v>-0.0494165944554872</v>
+      </c>
+      <c r="F91">
+        <v>0.003808930338725239</v>
+      </c>
+      <c r="G91">
+        <v>-0.002094345032712512</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1593366719432037</v>
+        <v>-0.1798318745391113</v>
       </c>
       <c r="C92">
-        <v>-0.2932646539411281</v>
+        <v>-0.2979213071533151</v>
       </c>
       <c r="D92">
-        <v>-0.02464522689182526</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00860285609011432</v>
+      </c>
+      <c r="E92">
+        <v>-0.0823829780115241</v>
+      </c>
+      <c r="F92">
+        <v>-0.03046356146920791</v>
+      </c>
+      <c r="G92">
+        <v>0.03953837547634827</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1893178497189208</v>
+        <v>-0.2144119312357166</v>
       </c>
       <c r="C93">
-        <v>-0.3449782605330954</v>
+        <v>-0.3209347984677486</v>
       </c>
       <c r="D93">
-        <v>-0.04380819457936983</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0181114116004752</v>
+      </c>
+      <c r="E93">
+        <v>-0.03330521706850326</v>
+      </c>
+      <c r="F93">
+        <v>0.02113983424891772</v>
+      </c>
+      <c r="G93">
+        <v>0.0482356707198777</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3576952526769531</v>
+        <v>-0.3488176550970864</v>
       </c>
       <c r="C94">
-        <v>0.1198731030779731</v>
+        <v>0.1721675203949324</v>
       </c>
       <c r="D94">
-        <v>-0.4474854993000819</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4241763222741161</v>
+      </c>
+      <c r="E94">
+        <v>0.1016741562735166</v>
+      </c>
+      <c r="F94">
+        <v>-0.09005038422682311</v>
+      </c>
+      <c r="G94">
+        <v>-0.5389850367473922</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.114405583801047</v>
+        <v>-0.0849297010684104</v>
       </c>
       <c r="C95">
-        <v>0.03335407490636202</v>
+        <v>0.05214796456919645</v>
       </c>
       <c r="D95">
-        <v>0.279049090300757</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2215387918166641</v>
+      </c>
+      <c r="E95">
+        <v>0.05822950239427881</v>
+      </c>
+      <c r="F95">
+        <v>-0.9010926808110679</v>
+      </c>
+      <c r="G95">
+        <v>-0.0662870568034776</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1878486455330743</v>
+        <v>-0.1845484785040264</v>
       </c>
       <c r="C98">
-        <v>0.03174939408947004</v>
+        <v>0.04992860068294078</v>
       </c>
       <c r="D98">
-        <v>0.2219612039439938</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2092733934661367</v>
+      </c>
+      <c r="E98">
+        <v>0.1535585033869518</v>
+      </c>
+      <c r="F98">
+        <v>0.1084470802281972</v>
+      </c>
+      <c r="G98">
+        <v>0.04229297878261134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01070474903222887</v>
+        <v>-0.008110270643262151</v>
       </c>
       <c r="C101">
-        <v>0.02964285091220588</v>
+        <v>0.02691501124155727</v>
       </c>
       <c r="D101">
-        <v>-0.004961250648186722</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03473899557026433</v>
+      </c>
+      <c r="E101">
+        <v>-0.0842804277834603</v>
+      </c>
+      <c r="F101">
+        <v>-0.004736839352061569</v>
+      </c>
+      <c r="G101">
+        <v>0.05876044768932029</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1200351573769771</v>
+        <v>-0.1227030990681167</v>
       </c>
       <c r="C102">
-        <v>0.06483355467786059</v>
+        <v>0.09893343305721007</v>
       </c>
       <c r="D102">
-        <v>-0.05935380767948595</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06282732775278514</v>
+      </c>
+      <c r="E102">
+        <v>0.003242816764630854</v>
+      </c>
+      <c r="F102">
+        <v>-0.02835603259092939</v>
+      </c>
+      <c r="G102">
+        <v>0.04223531490714615</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
